--- a/src-models/MODIFIED_FHIR_IDEA4RC_DM.xlsx
+++ b/src-models/MODIFIED_FHIR_IDEA4RC_DM.xlsx
@@ -8,32 +8,44 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/44ab1370a64b2221/github/idea4rc/src-models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_A0B3176D65AE36DB6C1D6E99317747DCBEA5F217" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B30FD5B3-C985-4679-8FBD-C5B71B917B21}"/>
+  <xr:revisionPtr revIDLastSave="34" documentId="11_A0B3176D65AE36DB6C1D6E99317747DCBEA5F217" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{314E818F-077B-4D13-8F5B-0FDA2C5132DD}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-21710" windowWidth="38620" windowHeight="21100" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="-21710" windowWidth="38620" windowHeight="21100" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HospitalData" sheetId="1" r:id="rId1"/>
     <sheet name="HospitalPatientRecords" sheetId="2" r:id="rId2"/>
     <sheet name="Patient" sheetId="3" r:id="rId3"/>
     <sheet name="PatientFollowUp" sheetId="4" r:id="rId4"/>
-    <sheet name="CancerEpisode" sheetId="5" r:id="rId5"/>
-    <sheet name="EpisodeEvent" sheetId="6" r:id="rId6"/>
-    <sheet name="GeneticTestExpression" sheetId="7" r:id="rId7"/>
-    <sheet name="ClinicalStage" sheetId="8" r:id="rId8"/>
-    <sheet name="PathologicalStage" sheetId="9" r:id="rId9"/>
-    <sheet name="SystemicTreatment" sheetId="10" r:id="rId10"/>
-    <sheet name="Surgery" sheetId="11" r:id="rId11"/>
-    <sheet name="Radiotherapy" sheetId="12" r:id="rId12"/>
-    <sheet name="TreatmentResponse" sheetId="13" r:id="rId13"/>
-    <sheet name="AdverseEvent" sheetId="14" r:id="rId14"/>
+    <sheet name="EpisodeEvent" sheetId="6" r:id="rId5"/>
+    <sheet name="GeneticTestExpression" sheetId="7" r:id="rId6"/>
+    <sheet name="ClinicalStage" sheetId="8" r:id="rId7"/>
+    <sheet name="PathologicalStage" sheetId="9" r:id="rId8"/>
+    <sheet name="SystemicTreatment" sheetId="10" r:id="rId9"/>
+    <sheet name="Surgery" sheetId="11" r:id="rId10"/>
+    <sheet name="Radiotherapy" sheetId="12" r:id="rId11"/>
+    <sheet name="TreatmentResponse" sheetId="13" r:id="rId12"/>
+    <sheet name="AdverseEvent" sheetId="14" r:id="rId13"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1150" uniqueCount="645">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1019" uniqueCount="550">
   <si>
     <t>index</t>
   </si>
@@ -457,451 +469,6 @@
   </si>
   <si>
     <t>TBD</t>
-  </si>
-  <si>
-    <t>CancerEpisode.Patient</t>
-  </si>
-  <si>
-    <t>CancerEpisode.DateOfDiagnosis(BiopsyOrSurgicalPiece)</t>
-  </si>
-  <si>
-    <t>Date of diagnosis (biopsy or surgical piece)</t>
-  </si>
-  <si>
-    <t>Date of the procedure from which the specimen was obtained that allowed the histological diagnosis.</t>
-  </si>
-  <si>
-    <t>CancerEpisode.BiopsyDoneBy</t>
-  </si>
-  <si>
-    <t>Biopsy done by</t>
-  </si>
-  <si>
-    <t>Describes the institution where diagnostic procedure was performed</t>
-  </si>
-  <si>
-    <t>The hospital; A different hospital</t>
-  </si>
-  <si>
-    <t>CancerEpisode.AgeAtDiagnosis</t>
-  </si>
-  <si>
-    <t>Age at diagnosis</t>
-  </si>
-  <si>
-    <t>Age of the patient at the time of the diagnosis.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Integer </t>
-  </si>
-  <si>
-    <t>Whole number greater than 0</t>
-  </si>
-  <si>
-    <t>CancerEpisode.Grading</t>
-  </si>
-  <si>
-    <t>Grading</t>
-  </si>
-  <si>
-    <t>Grading of the cancer</t>
-  </si>
-  <si>
-    <t>Check this</t>
-  </si>
-  <si>
-    <t>CancerEpisode.Histology(Who2017)Group</t>
-  </si>
-  <si>
-    <t>Histology (WHO 2017) group</t>
-  </si>
-  <si>
-    <t>Histology of prymary tumour  according to WHO 2017 clasification.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WHO 2017 H&amp;N Classification
-Squamous; Adenocarcinoma; Neuroendocrine;Adenosquamous carcinoma; Teratocarcinosarcoma; NUT carcinoma; HPV-related Multiphenotypic; Olfactory neuroblastoma (esthesioneuroblastoma, esthesioneurocytoma, esthesioneuroepithelioma, Olfactory placode tumor); Odontogenic carcinoma;  Sinonasal undifferentiated Carcinoma(SNUC);Carcinoma /Carcinoma undifferentiated </t>
-  </si>
-  <si>
-    <t>Squamous - 37396745
-Adenocarcinoma - 40479582
-Neuroendocrine - 4102373
-Adenosquamous carcinoma - 4298029
- Teratocarcinosarcoma 
-NUT carcinoma - 733922002
- HPV-related Multiphenotypic
- Olfactory neuroblastoma (esthesioneuroblastoma, esthesioneurocytoma, esthesioneuroepithelioma, Olfactory placode tumor) -
-Odontogenic carcinoma - 40362118
-  Sinonasal undifferentiated Carcinoma(SNUC)
-Carcinoma /Carcinoma undifferentiated - 44783808</t>
-  </si>
-  <si>
-    <t>CUS.HistologySquamous</t>
-  </si>
-  <si>
-    <t>Histology Squamous</t>
-  </si>
-  <si>
-    <t>Specifies the histological subgroup for squamous cancers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Keratinizing squamous cell carcinoma, epidermoid carcinoma; Non-keratinizing squamous cell carcinoma; Non-keratinizing squamous cell carcinoma: SMARCB1 (INI-1)-deficient Sinonasal Carcinoma ;Non-keratinizing squamous cell carcinoma: Transitional (cylindrical cell, Schneiderian) carcinoma ;Spindle cell (sarcomatoid) squamous cell carcinoma;Spindle cell (sarcomatoid) squamous cell carcinoma: SMARCB1 (INI-1)-deficient Sinonasal Carcinoma ;Lymphoepithelial carcinoma, lymphoepithelioma like carcinoma;Basaloid squamous cell carcinoma;Squamous cell carcinoma: conventional,  NOS, clear cell, microinvasive, adenoid, acantholytic, pseudoglandular, giant cell ;Verrucous squamous cell carcinoma: NOS, cuniculatum carcinoma/Ackerman tumor; Papillary squamous cell carcinoma; Squamous cell carcinoma; Squamous cell carcinoma: HPV-positive; Squamous cell carcinoma: HPV-negative   </t>
-  </si>
-  <si>
-    <t>Keratinizing squamous cell carcinoma, epidermoid carcinoma - 4078953
- Non-keratinizing squamous cell carcinoma -  4147603
- Non-keratinizing squamous cell carcinoma: SMARCB1 (INI-1)-deficient Sinonasal Carcinoma - (This should be a modifier? not clear)
-Non-keratinizing squamous cell carcinoma: Transitional (cylindrical cell, Schneiderian) carcinoma - 4206785
-Spindle cell (sarcomatoid) squamous cell carcinoma - 4277415
-Spindle cell (sarcomatoid) squamous cell carcinoma: SMARCB1 (INI-1)-deficient Sinonasal Carcinoma -  (This should be a modifier? not clear)
-Lymphoepithelial carcinoma, lymphoepithelioma like carcinoma - 4247661
-Basaloid squamous cell carcinoma - 4029973
-Squamous cell carcinoma: conventional,  NOS, clear cell, microinvasive, adenoid, acantholytic, pseudoglandular, giant cell 
-Verrucous squamous cell carcinoma: NOS, cuniculatum carcinoma/Ackerman tumor - 4298030
- Papillary squamous cell carcinoma - 4191609
- Squamous cell carcinoma - 4103543
- Squamous cell carcinoma: HPV-positive - 37204531
- Squamous cell carcinoma: HPV-negative  -  37204532</t>
-  </si>
-  <si>
-    <t>CUS.HistologyAdenocarcinoma</t>
-  </si>
-  <si>
-    <t>Histology Adenocarcinoma</t>
-  </si>
-  <si>
-    <t>Specifies the histological subgroup for adenocarcinomas</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Intestinal-type (sinonasal) adenocarcinoma; NOS, non–intestinal-type (sinonasal), Endolymphatic sac low grade, Intestinal-type (salivary gland), cystoadenocarcinoma, mucinous, Ceruminous  (only in ear); Nasopharyngeal papillary adenocarcinoma, thyroid like low grade nasopharingeal papillary adenocarcinoma; Adenoid cystic carcinoma; Adenoid cystic carcinoma: solid type (&gt; 30% solid); Mucoepidermoid carcinoma; Polymorphous, Cribriform  of minor salivary glands, Polymorphous (low grade), terminal duct carcinoma, lobular carcinoma; Acinic cell carcinoma;Clear cell carcinoma, hyalinising clear cell carcinoma; Basal cell adenocarcinoma, malignant dermal analog tumor;Salivary duct carcinoma, high grade ductal carcinoma;Salivary secretory adenocarcinoma (mammary analog, MASC); Secretory carcinoma; Myoepithelial carcinoma, malignant myoepithelioma; Carcinoma ex pleomorphic adenoma: NOS,  Intracapsular, minimally invasive, largely invasive; Sebaceous adenocarcinoma, Sebaceous lymphadenocarcinoma; Carcinosarcoma; Oncocytic carcinoma, oxyphilic carcinoma, oncocytic adenocarcinoma, oncocytic malignant oncocytoma; Salivary gland intraductal carcinoma (cribriform low grade adenocarcinoma)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Intestinal-type (sinonasal) adenocarcinoma - CHECK WHICH SON
- NOS, non–intestinal-type (sinonasal) - FROM HERE?,
-Endolymphatic sac low grade, 
-Intestinal-type (salivary gland) - 4312929, 
-cystoadenocarcinoma - 4050978, 
-mucinous - 4247921, 
-Ceruminous  (only in ear) - 4238334
- Nasopharyngeal papillary adenocarcinoma - 605208, 
-thyroid like low grade nasopharingeal papillary adenocarcinoma
- Adenoid cystic carcinoma - 4022895
- Adenoid cystic carcinoma: solid type (&gt; 30% solid)
- Mucoepidermoid carcinoma - 4253608
-Polymorphous
-Cribriform  of minor salivary glands - THERE IS NO MINOR BUT MAJOR SALIVARY GLANDS
- Polymorphous (low grade) - 4030121
-terminal duct carcinoma - NOT SURE
-lobular carcinoma - 4232456
- Acinic cell carcinoma - 4164740
-Clear cell carcinoma - 4148292, 
-hyalinising clear cell carcinoma
- Basal cell adenocarcinoma - 4146684
-malignant dermal analog tumor - NOT SURE
-Salivary duct carcinoma - 4287334
-high grade ductal carcinoma
-Salivary secretory adenocarcinoma (mammary analog, MASC) - 37116978
- Secretory carcinoma - LOOKS LIKE NO MAPPING IN SNOMED
- Myoepithelial carcinoma, malignant myoepithelioma - 4029680
- Carcinoma ex pleomorphic adenoma: NOS,  Intracapsular, minimally invasive, largely invasive
- Sebaceous adenocarcinoma - 4182993
-Sebaceous lymphadenocarcinoma - 37116976
- Carcinosarcoma -  4271564
- Oncocytic carcinoma
-oxyphilic carcinoma - 4212379
-oncocytic adenocarcinoma
-oncocytic malignant oncocytoma
- Salivary gland intraductal carcinoma (cribriform low grade adenocarcinoma)  </t>
-  </si>
-  <si>
-    <t>CUS.HistologyNeuroendocrine</t>
-  </si>
-  <si>
-    <t>Histology Neuroendocrine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Specifies the histological subgroup for neuroendocrine cancers </t>
-  </si>
-  <si>
-    <t>Small cell neuroendocrine carcinoma (SmCC)​,Poorly differentiated neuroendocrine carcinoma, small cell (grade 3);Large cell neuroendocrine carcinoma (LCNEC)​, Poorly differentiated neuroendocrine carcinoma, large cell (grade 3);Well-differentiated neuroendocrine carcinoma, Middle ear carcinoid tumor;Moderately differentiated neuroendocrine carcinoma</t>
-  </si>
-  <si>
-    <t>Small cell neuroendocrine carcinoma (SmCC)​ - 36714029
-Poorly differentiated neuroendocrine carcinoma - 37018672
-small cell (grade 3)
-Large cell neuroendocrine carcinoma (LCNEC)​ - 4029971
-Poorly differentiated neuroendocrine carcinoma, large cell (grade 3)
-Well-differentiated neuroendocrine carcinoma, 
-Middle ear carcinoid tumor
-Moderately differentiated neuroendocrine carcinoma</t>
-  </si>
-  <si>
-    <t>CUS.HistologyOdontogenicCarcinoma</t>
-  </si>
-  <si>
-    <t>Histology Odontogenic Carcinoma</t>
-  </si>
-  <si>
-    <t>Specifies the histological subgroup for odontogenic carcinomas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Odontogenic carcinoma, NOS, Ameloblastic carcinoma (primary, secondary intraosseous, secondary peripheral), Primary intraosseous carcinoma, Intraosseous carcinoma developed on odontogenic cyst, sclerosing odontogenic carcinoma; Clear cell odontogenic carcinoma; Gosht cell odontogenic carcinoma</t>
-  </si>
-  <si>
-    <t>Odontogenic carcinoma, NOS - 4098585
-Ameloblastic carcinoma (primary, secondary intraosseous, secondary peripheral) - 37116638
-Secondary dedifferentiated intraosseous ameloblastic carcinoma
- - 37116980
-Secondary dedifferentiated peripheral ameloblastic carcinoma - 37116979
- Primary intraosseous carcinoma - 37117009
-Intraosseous carcinoma developed on odontogenic cyst - 37116887
-sclerosing odontogenic carcinoma
- Clear cell odontogenic carcinoma - 734032001
-Gosht cell odontogenic carcinoma - 37312303</t>
-  </si>
-  <si>
-    <t>CUS.HistologySNUC</t>
-  </si>
-  <si>
-    <t>Histology Sinonasal undifferentiated carcinoma</t>
-  </si>
-  <si>
-    <t>Specifies the histological subgroup for sinonasl undifferentiated carcinomas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-SMARCB1 (INI-1)-deficient Sinonasal undifferentiated Carcinoma;Sinonasal SMARCA4 deficient carcinoma;IDH2-mutated sinonasal undifferentiated neoplasm</t>
-  </si>
-  <si>
-    <t>SMARCB1 (INI-1)-deficient Sinonasal undifferentiated Carcinoma
-Sinonasal SMARCA4 deficient carcinoma
-IDH2-mutated sinonasal undifferentiated neoplasm</t>
-  </si>
-  <si>
-    <t>CUS.NasalCavityAndParanasalSinusesSubsite</t>
-  </si>
-  <si>
-    <t>Nasal cavity and paranasal sinuses subsite</t>
-  </si>
-  <si>
-    <t>Specifies the subsite for cancers occurred in nasal cavity and paranasal sinusess</t>
-  </si>
-  <si>
-    <t>AJCC 8th Edition Cancer Staging Manual
-Nasal cavity;Maxillary sinus;Ethmoid sinus;Frontal sinus;Sphenoid sinus</t>
-  </si>
-  <si>
-    <t>Nasal cavity - 4088327
-Maxillary sinus - 4050631
-Ethmoid sinus - 4182234
-Frontal sinus - 4204534
-Sphenoid sinus - 4097172</t>
-  </si>
-  <si>
-    <t>CUS.NasopharynxSubsite</t>
-  </si>
-  <si>
-    <t>Nasopharynx  subsite</t>
-  </si>
-  <si>
-    <t>Specifies the subsite for cancers occurred in nasopharynx</t>
-  </si>
-  <si>
-    <t>AJCC 8th Edition Cancer Staging Manual
-Superior wall of nasopharynx;Posterior wall of nasopharynx;Lateral wall of nasopharynx;Anterior wall of nasopharynx</t>
-  </si>
-  <si>
-    <t>Superior wall of nasopharynx - 4068978
-Posterior wall of nasopharynx - 4146741
-Lateral wall of nasopharynx - 4323979
-Anterior wall of nasopharynx - 4220236</t>
-  </si>
-  <si>
-    <t>CUS.HypopharynxSubsite</t>
-  </si>
-  <si>
-    <t>Hypopharynx subsite</t>
-  </si>
-  <si>
-    <t>Specifies the subsite for cancers occurred in hypopharynx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AJCC 8th Edition Cancer Staging Manual
-Postcricoid region; Hypopharyngeal aspect of aryepiglottic fold;
-Posterior wall of hypopharynx;Pyriform sinus
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Postcricoid region - 4147741
- Hypopharyngeal aspect of aryepiglottic fold - 4262980
-Posterior wall of hypopharynx - 4102600
-Pyriform sinus - 4268741
-</t>
-  </si>
-  <si>
-    <t>CUS.OropharynxSubsite</t>
-  </si>
-  <si>
-    <t>Oropharynx subsite</t>
-  </si>
-  <si>
-    <t>Specifies the subsite for cancers occurred in oropharynx</t>
-  </si>
-  <si>
-    <t>https://link.springer.com/book/9783319406176
-Base of tongue, NOS;
-Soft palate NOS (excludes Nasopharyngcal surface C11.3);
-Uvula;
-Tonsillar fossa;
-Lingual tonsil;
-Tonsillar pillar;
-Vallecula;
-Anterior surface of epiglottis;
-Lateral wall oropharynx;
-Posterior wall oropharynx;
-Branchial cleft (site of neoplosm);</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Base of tongue, NOS - 4169910
-Soft palate NOS (excludes Nasopharyngcal surface C11.3) - 4177005
-Uvula - 4095284
-Tonsillar fossa - 4138234
-Lingual tonsil - 4068841
-Tonsillar pillar - 4065073
-Vallecula - 4173123
-Anterior surface of epiglottis - 4283238
-Lateral wall oropharynx - 4078066
-Posterior wall oropharynx - 4045435
-Branchial cleft (site of neoplosm) - 4235649</t>
-  </si>
-  <si>
-    <t>CUS.LarynxSubsite</t>
-  </si>
-  <si>
-    <t>Larynx subsite</t>
-  </si>
-  <si>
-    <t>Specifies the subsite for cancers occurred in larynx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AJCC 8th Edition Cancer Staging Manual
-Glottis;Supraglottis;Subglottis;Laryngeal cartilage
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Glottis - 4047227
-Supraglottis - 4001049
-Subglottis - 4002724
-Laryngeal cartilage - 4279711
-</t>
-  </si>
-  <si>
-    <t>CUS.OralCavitySubsite</t>
-  </si>
-  <si>
-    <t>Oral cavity subsite</t>
-  </si>
-  <si>
-    <t>Specifies the subsite for cancers occurred in oral cavity</t>
-  </si>
-  <si>
-    <t>AJCC 8th Edition Cancer Staging Manual
-Dorsal surface tongue, NOS;
-Border of tongue;
-Ventral surface of tongue NOS;
-Anterior 2/3 of tongue NOS;
-Upper gum;
-Lower gum;
-Anterior floor of mouth;
-Lateral floor of mouth;
-Overlapping lesion of floor of mouth;
-Hard palate;
-Cheek mucosa;
-Vestibule of mouth;
-Retromolar area;
-Overlapping lesion of other and unspecified parts of mouth;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dorsal surface tongue, NOS - 36769609
-Border of tongue - 4077986
-Ventral surface of tongue - 4172794
-Anterior 2/3 of tongue NOS
-Upper gum - 4047029
-Lower gum - 4210919
-Anterior floor of mouth - 4181419
-Lateral floor of mouth - 4103066
-Overlapping lesion of floor of mouth - 44498040
-Hard palate - 4234542
-Cheek mucosa - 4057160
-Vestibule of mouth - 4144069
-Retromolar area - 36769865
-Overlapping lesion of other and unspecified parts of mouth - </t>
-  </si>
-  <si>
-    <t>CUS.LipSubsite</t>
-  </si>
-  <si>
-    <t>Lip subsite</t>
-  </si>
-  <si>
-    <t>Specifies the subsite for cancers occurred in lip</t>
-  </si>
-  <si>
-    <t>AJCC 8th Edition Cancer Staging Manual
-External lower lip;External upper lip;External lip, NOS;Mucosa of upper lip;Mucosa of lower lip;Mucosa of lip, NOS;Commissure of lip</t>
-  </si>
-  <si>
-    <t>External lower lip - 4027546
-External upper lip - 4134589
-External lip, NOS - 4027545
-Mucosa of upper lip -  36769700
-Mucosa of lower lip - 36768548
-Mucosa of lip, NOS - 4245168
-Commissure of lip - 4307358</t>
-  </si>
-  <si>
-    <t>CUS.PlasmaticEbvDnaAtBaseline</t>
-  </si>
-  <si>
-    <t>Plasmatic EBV DNA at baseline</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Describes the result of EBV DNA plasma testing before treatment in NPC type II and III (WHO) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Positive; Negative; not tested;</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Positive - 9191
- Negative - 9189
-not tested - 45878602</t>
-  </si>
-  <si>
-    <t>CUS.HpvStatus</t>
-  </si>
-  <si>
-    <t>HPV status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Describes the result of HPV tumor testing in oral carcinoma </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Positive; Negative; Not tested;</t>
-  </si>
-  <si>
-    <t>CUS.Crp–CReactiveProteinTested</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CRP – C reactive protein tested </t>
-  </si>
-  <si>
-    <t>Describes the result of C reactive protein testing</t>
-  </si>
-  <si>
-    <t>Positive; Negative; Not tested;</t>
   </si>
   <si>
     <t>EpisodeEvent.CancerEpisodeReference</t>
@@ -2336,10 +1903,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2356,6 +1929,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2710,441 +2287,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:I16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.75">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.75">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>407</v>
-      </c>
-      <c r="C2" t="s">
-        <v>408</v>
-      </c>
-      <c r="D2" t="s">
-        <v>290</v>
-      </c>
-      <c r="E2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.75">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>409</v>
-      </c>
-      <c r="C3" t="s">
-        <v>410</v>
-      </c>
-      <c r="D3" t="s">
-        <v>411</v>
-      </c>
-      <c r="E3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F3" t="s">
-        <v>412</v>
-      </c>
-      <c r="G3" t="s">
-        <v>413</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.75">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>414</v>
-      </c>
-      <c r="C4" t="s">
-        <v>415</v>
-      </c>
-      <c r="D4" t="s">
-        <v>416</v>
-      </c>
-      <c r="E4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" t="s">
-        <v>417</v>
-      </c>
-      <c r="G4" t="s">
-        <v>418</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.75">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>419</v>
-      </c>
-      <c r="C5" t="s">
-        <v>420</v>
-      </c>
-      <c r="D5" t="s">
-        <v>421</v>
-      </c>
-      <c r="E5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" t="s">
-        <v>422</v>
-      </c>
-      <c r="G5" t="s">
-        <v>423</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.75">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>424</v>
-      </c>
-      <c r="C6" t="s">
-        <v>425</v>
-      </c>
-      <c r="D6" t="s">
-        <v>426</v>
-      </c>
-      <c r="E6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" t="s">
-        <v>427</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.75">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>428</v>
-      </c>
-      <c r="C7" t="s">
-        <v>429</v>
-      </c>
-      <c r="D7" t="s">
-        <v>430</v>
-      </c>
-      <c r="E7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" t="s">
-        <v>427</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.75">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>431</v>
-      </c>
-      <c r="C8" t="s">
-        <v>432</v>
-      </c>
-      <c r="D8" t="s">
-        <v>433</v>
-      </c>
-      <c r="E8" t="s">
-        <v>434</v>
-      </c>
-      <c r="F8" t="s">
-        <v>57</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.75">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>435</v>
-      </c>
-      <c r="C9" t="s">
-        <v>436</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.75">
-      <c r="A10">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>437</v>
-      </c>
-      <c r="C10" t="s">
-        <v>438</v>
-      </c>
-      <c r="E10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F10" t="s">
-        <v>439</v>
-      </c>
-      <c r="G10" t="s">
-        <v>440</v>
-      </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.75">
-      <c r="A11">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>441</v>
-      </c>
-      <c r="C11" t="s">
-        <v>442</v>
-      </c>
-      <c r="E11" t="s">
-        <v>30</v>
-      </c>
-      <c r="F11" t="s">
-        <v>439</v>
-      </c>
-      <c r="G11" t="s">
-        <v>440</v>
-      </c>
-      <c r="H11">
-        <v>1</v>
-      </c>
-      <c r="I11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.75">
-      <c r="A12">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>443</v>
-      </c>
-      <c r="C12" t="s">
-        <v>444</v>
-      </c>
-      <c r="E12" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" t="s">
-        <v>439</v>
-      </c>
-      <c r="G12" t="s">
-        <v>440</v>
-      </c>
-      <c r="H12">
-        <v>1</v>
-      </c>
-      <c r="I12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.75">
-      <c r="A13">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>445</v>
-      </c>
-      <c r="C13" t="s">
-        <v>446</v>
-      </c>
-      <c r="D13" t="s">
-        <v>447</v>
-      </c>
-      <c r="E13" t="s">
-        <v>26</v>
-      </c>
-      <c r="F13" t="s">
-        <v>448</v>
-      </c>
-      <c r="H13">
-        <v>1</v>
-      </c>
-      <c r="I13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.75">
-      <c r="A14">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>449</v>
-      </c>
-      <c r="C14" t="s">
-        <v>450</v>
-      </c>
-      <c r="D14" t="s">
-        <v>451</v>
-      </c>
-      <c r="E14" t="s">
-        <v>26</v>
-      </c>
-      <c r="F14" t="s">
-        <v>448</v>
-      </c>
-      <c r="H14">
-        <v>1</v>
-      </c>
-      <c r="I14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.75">
-      <c r="A15">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>452</v>
-      </c>
-      <c r="C15" t="s">
-        <v>453</v>
-      </c>
-      <c r="D15" t="s">
-        <v>454</v>
-      </c>
-      <c r="E15" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" t="s">
-        <v>455</v>
-      </c>
-      <c r="G15" t="s">
-        <v>456</v>
-      </c>
-      <c r="H15">
-        <v>1</v>
-      </c>
-      <c r="I15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.75">
-      <c r="A16">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>457</v>
-      </c>
-      <c r="C16" t="s">
-        <v>458</v>
-      </c>
-      <c r="D16" t="s">
-        <v>459</v>
-      </c>
-      <c r="E16" t="s">
-        <v>30</v>
-      </c>
-      <c r="F16" t="s">
-        <v>460</v>
-      </c>
-      <c r="G16" t="s">
-        <v>461</v>
-      </c>
-      <c r="H16">
-        <v>1</v>
-      </c>
-      <c r="I16">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:I24"/>
   <sheetViews>
@@ -3186,13 +2328,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>462</v>
+        <v>367</v>
       </c>
       <c r="C2" t="s">
-        <v>408</v>
+        <v>313</v>
       </c>
       <c r="D2" t="s">
-        <v>290</v>
+        <v>195</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
@@ -3209,22 +2351,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>463</v>
+        <v>368</v>
       </c>
       <c r="C3" t="s">
-        <v>464</v>
+        <v>369</v>
       </c>
       <c r="D3" t="s">
-        <v>465</v>
+        <v>370</v>
       </c>
       <c r="E3" t="s">
         <v>46</v>
       </c>
       <c r="F3" t="s">
-        <v>466</v>
+        <v>371</v>
       </c>
       <c r="G3" t="s">
-        <v>246</v>
+        <v>151</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -3238,19 +2380,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>467</v>
+        <v>372</v>
       </c>
       <c r="C4" t="s">
-        <v>468</v>
+        <v>373</v>
       </c>
       <c r="D4" t="s">
-        <v>469</v>
+        <v>374</v>
       </c>
       <c r="E4" t="s">
         <v>26</v>
       </c>
       <c r="F4" t="s">
-        <v>427</v>
+        <v>332</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -3264,22 +2406,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>470</v>
+        <v>375</v>
       </c>
       <c r="C5" t="s">
-        <v>471</v>
+        <v>376</v>
       </c>
       <c r="D5" t="s">
-        <v>472</v>
+        <v>377</v>
       </c>
       <c r="E5" t="s">
         <v>30</v>
       </c>
       <c r="F5" t="s">
-        <v>473</v>
+        <v>378</v>
       </c>
       <c r="G5" t="s">
-        <v>418</v>
+        <v>323</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -3293,22 +2435,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>474</v>
+        <v>379</v>
       </c>
       <c r="C6" t="s">
-        <v>475</v>
+        <v>380</v>
       </c>
       <c r="D6" t="s">
-        <v>476</v>
+        <v>381</v>
       </c>
       <c r="E6" t="s">
         <v>30</v>
       </c>
       <c r="F6" t="s">
-        <v>477</v>
+        <v>382</v>
       </c>
       <c r="G6" t="s">
-        <v>478</v>
+        <v>383</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -3322,22 +2464,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>479</v>
+        <v>384</v>
       </c>
       <c r="C7" t="s">
-        <v>480</v>
+        <v>385</v>
       </c>
       <c r="D7" t="s">
-        <v>481</v>
+        <v>386</v>
       </c>
       <c r="E7" t="s">
         <v>30</v>
       </c>
       <c r="F7" t="s">
-        <v>482</v>
+        <v>387</v>
       </c>
       <c r="G7" t="s">
-        <v>483</v>
+        <v>388</v>
       </c>
       <c r="H7">
         <v>1</v>
@@ -3351,19 +2493,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>484</v>
+        <v>389</v>
       </c>
       <c r="C8" t="s">
-        <v>485</v>
+        <v>390</v>
       </c>
       <c r="D8" t="s">
-        <v>486</v>
+        <v>391</v>
       </c>
       <c r="E8" t="s">
         <v>30</v>
       </c>
       <c r="F8" t="s">
-        <v>487</v>
+        <v>392</v>
       </c>
       <c r="G8" t="s">
         <v>69</v>
@@ -3380,19 +2522,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>488</v>
+        <v>393</v>
       </c>
       <c r="C9" t="s">
-        <v>489</v>
+        <v>394</v>
       </c>
       <c r="D9" t="s">
-        <v>490</v>
+        <v>395</v>
       </c>
       <c r="E9" t="s">
         <v>30</v>
       </c>
       <c r="F9" t="s">
-        <v>386</v>
+        <v>291</v>
       </c>
       <c r="G9" t="s">
         <v>69</v>
@@ -3409,13 +2551,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>491</v>
+        <v>396</v>
       </c>
       <c r="C10" t="s">
-        <v>492</v>
+        <v>397</v>
       </c>
       <c r="D10" t="s">
-        <v>493</v>
+        <v>398</v>
       </c>
       <c r="E10" t="s">
         <v>26</v>
@@ -3432,19 +2574,19 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>494</v>
+        <v>399</v>
       </c>
       <c r="C11" t="s">
-        <v>495</v>
+        <v>400</v>
       </c>
       <c r="D11" t="s">
-        <v>496</v>
+        <v>401</v>
       </c>
       <c r="E11" t="s">
         <v>30</v>
       </c>
       <c r="F11" t="s">
-        <v>497</v>
+        <v>402</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -3458,19 +2600,19 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>498</v>
+        <v>403</v>
       </c>
       <c r="C12" t="s">
-        <v>499</v>
+        <v>404</v>
       </c>
       <c r="D12" t="s">
-        <v>500</v>
+        <v>405</v>
       </c>
       <c r="E12" t="s">
         <v>30</v>
       </c>
       <c r="F12" t="s">
-        <v>386</v>
+        <v>291</v>
       </c>
       <c r="G12" t="s">
         <v>69</v>
@@ -3487,19 +2629,19 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>501</v>
+        <v>406</v>
       </c>
       <c r="C13" t="s">
-        <v>502</v>
+        <v>407</v>
       </c>
       <c r="D13" t="s">
-        <v>503</v>
+        <v>408</v>
       </c>
       <c r="E13" t="s">
         <v>26</v>
       </c>
       <c r="F13" t="s">
-        <v>427</v>
+        <v>332</v>
       </c>
       <c r="H13">
         <v>1</v>
@@ -3513,19 +2655,19 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>504</v>
+        <v>409</v>
       </c>
       <c r="C14" t="s">
-        <v>505</v>
+        <v>410</v>
       </c>
       <c r="D14" t="s">
-        <v>506</v>
+        <v>411</v>
       </c>
       <c r="E14" t="s">
         <v>73</v>
       </c>
       <c r="F14" t="s">
-        <v>507</v>
+        <v>412</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -3539,19 +2681,19 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>508</v>
+        <v>413</v>
       </c>
       <c r="C15" t="s">
-        <v>509</v>
+        <v>414</v>
       </c>
       <c r="D15" t="s">
-        <v>510</v>
+        <v>415</v>
       </c>
       <c r="E15" t="s">
         <v>73</v>
       </c>
       <c r="F15" t="s">
-        <v>507</v>
+        <v>412</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -3565,19 +2707,19 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>511</v>
+        <v>416</v>
       </c>
       <c r="C16" t="s">
-        <v>512</v>
+        <v>417</v>
       </c>
       <c r="D16" t="s">
-        <v>513</v>
+        <v>418</v>
       </c>
       <c r="E16" t="s">
         <v>73</v>
       </c>
       <c r="F16" t="s">
-        <v>507</v>
+        <v>412</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -3591,19 +2733,19 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>514</v>
+        <v>419</v>
       </c>
       <c r="C17" t="s">
-        <v>515</v>
+        <v>420</v>
       </c>
       <c r="D17" t="s">
-        <v>516</v>
+        <v>421</v>
       </c>
       <c r="E17" t="s">
         <v>73</v>
       </c>
       <c r="F17" t="s">
-        <v>507</v>
+        <v>412</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -3617,19 +2759,19 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>517</v>
+        <v>422</v>
       </c>
       <c r="C18" t="s">
-        <v>518</v>
+        <v>423</v>
       </c>
       <c r="D18" t="s">
-        <v>519</v>
+        <v>424</v>
       </c>
       <c r="E18" t="s">
         <v>73</v>
       </c>
       <c r="F18" t="s">
-        <v>507</v>
+        <v>412</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -3643,19 +2785,19 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>520</v>
+        <v>425</v>
       </c>
       <c r="C19" t="s">
-        <v>521</v>
+        <v>426</v>
       </c>
       <c r="D19" t="s">
-        <v>522</v>
+        <v>427</v>
       </c>
       <c r="E19" t="s">
         <v>73</v>
       </c>
       <c r="F19" t="s">
-        <v>507</v>
+        <v>412</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -3669,19 +2811,19 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>523</v>
+        <v>428</v>
       </c>
       <c r="C20" t="s">
-        <v>524</v>
+        <v>429</v>
       </c>
       <c r="D20" t="s">
-        <v>525</v>
+        <v>430</v>
       </c>
       <c r="E20" t="s">
         <v>73</v>
       </c>
       <c r="F20" t="s">
-        <v>507</v>
+        <v>412</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -3695,19 +2837,19 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>526</v>
+        <v>431</v>
       </c>
       <c r="C21" t="s">
-        <v>527</v>
+        <v>432</v>
       </c>
       <c r="D21" t="s">
-        <v>528</v>
+        <v>433</v>
       </c>
       <c r="E21" t="s">
         <v>73</v>
       </c>
       <c r="F21" t="s">
-        <v>507</v>
+        <v>412</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -3721,19 +2863,19 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>529</v>
+        <v>434</v>
       </c>
       <c r="C22" t="s">
-        <v>530</v>
+        <v>435</v>
       </c>
       <c r="D22" t="s">
-        <v>531</v>
+        <v>436</v>
       </c>
       <c r="E22" t="s">
         <v>73</v>
       </c>
       <c r="F22" t="s">
-        <v>507</v>
+        <v>412</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -3747,19 +2889,19 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>532</v>
+        <v>437</v>
       </c>
       <c r="C23" t="s">
-        <v>533</v>
+        <v>438</v>
       </c>
       <c r="D23" t="s">
-        <v>534</v>
+        <v>439</v>
       </c>
       <c r="E23" t="s">
         <v>73</v>
       </c>
       <c r="F23" t="s">
-        <v>507</v>
+        <v>412</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -3773,22 +2915,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>535</v>
+        <v>440</v>
       </c>
       <c r="C24" t="s">
-        <v>536</v>
+        <v>441</v>
       </c>
       <c r="D24" t="s">
-        <v>537</v>
+        <v>442</v>
       </c>
       <c r="E24" t="s">
         <v>30</v>
       </c>
       <c r="F24" t="s">
-        <v>538</v>
+        <v>443</v>
       </c>
       <c r="G24" t="s">
-        <v>539</v>
+        <v>444</v>
       </c>
       <c r="H24">
         <v>1</v>
@@ -3802,7 +2944,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:I28"/>
   <sheetViews>
@@ -3844,13 +2986,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>540</v>
+        <v>445</v>
       </c>
       <c r="C2" t="s">
-        <v>408</v>
+        <v>313</v>
       </c>
       <c r="D2" t="s">
-        <v>290</v>
+        <v>195</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
@@ -3867,22 +3009,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>541</v>
+        <v>446</v>
       </c>
       <c r="C3" t="s">
-        <v>542</v>
+        <v>447</v>
       </c>
       <c r="D3" t="s">
-        <v>543</v>
+        <v>448</v>
       </c>
       <c r="E3" t="s">
         <v>46</v>
       </c>
       <c r="F3" t="s">
-        <v>466</v>
+        <v>371</v>
       </c>
       <c r="G3" t="s">
-        <v>246</v>
+        <v>151</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -3896,22 +3038,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>544</v>
+        <v>449</v>
       </c>
       <c r="C4" t="s">
-        <v>415</v>
+        <v>320</v>
       </c>
       <c r="D4" t="s">
-        <v>545</v>
+        <v>450</v>
       </c>
       <c r="E4" t="s">
         <v>30</v>
       </c>
       <c r="F4" t="s">
-        <v>417</v>
+        <v>322</v>
       </c>
       <c r="G4" t="s">
-        <v>418</v>
+        <v>323</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -3925,22 +3067,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>546</v>
+        <v>451</v>
       </c>
       <c r="C5" t="s">
-        <v>420</v>
+        <v>325</v>
       </c>
       <c r="D5" t="s">
-        <v>547</v>
+        <v>452</v>
       </c>
       <c r="E5" t="s">
         <v>30</v>
       </c>
       <c r="F5" t="s">
-        <v>548</v>
+        <v>453</v>
       </c>
       <c r="G5" t="s">
-        <v>549</v>
+        <v>454</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -3954,22 +3096,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>550</v>
+        <v>455</v>
       </c>
       <c r="C6" t="s">
-        <v>551</v>
+        <v>456</v>
       </c>
       <c r="D6" t="s">
-        <v>552</v>
+        <v>457</v>
       </c>
       <c r="E6" t="s">
         <v>30</v>
       </c>
       <c r="F6" t="s">
-        <v>553</v>
+        <v>458</v>
       </c>
       <c r="G6" t="s">
-        <v>554</v>
+        <v>459</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -3983,10 +3125,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>555</v>
+        <v>460</v>
       </c>
       <c r="C7" t="s">
-        <v>556</v>
+        <v>461</v>
       </c>
       <c r="E7" t="s">
         <v>12</v>
@@ -4006,22 +3148,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>557</v>
+        <v>462</v>
       </c>
       <c r="C8" t="s">
-        <v>558</v>
+        <v>463</v>
       </c>
       <c r="D8" t="s">
-        <v>559</v>
+        <v>464</v>
       </c>
       <c r="E8" t="s">
         <v>30</v>
       </c>
       <c r="F8" t="s">
-        <v>560</v>
+        <v>465</v>
       </c>
       <c r="G8" t="s">
-        <v>561</v>
+        <v>466</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -4035,19 +3177,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>562</v>
+        <v>467</v>
       </c>
       <c r="C9" t="s">
-        <v>563</v>
+        <v>468</v>
       </c>
       <c r="D9" t="s">
-        <v>564</v>
+        <v>469</v>
       </c>
       <c r="E9" t="s">
-        <v>434</v>
+        <v>339</v>
       </c>
       <c r="F9" t="s">
-        <v>565</v>
+        <v>470</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -4061,19 +3203,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>566</v>
+        <v>471</v>
       </c>
       <c r="C10" t="s">
-        <v>567</v>
+        <v>472</v>
       </c>
       <c r="D10" t="s">
-        <v>568</v>
+        <v>473</v>
       </c>
       <c r="E10" t="s">
-        <v>434</v>
+        <v>339</v>
       </c>
       <c r="F10" t="s">
-        <v>565</v>
+        <v>470</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -4087,19 +3229,19 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>569</v>
+        <v>474</v>
       </c>
       <c r="C11" t="s">
-        <v>570</v>
+        <v>475</v>
       </c>
       <c r="D11" t="s">
-        <v>571</v>
+        <v>476</v>
       </c>
       <c r="E11" t="s">
-        <v>434</v>
+        <v>339</v>
       </c>
       <c r="F11" t="s">
-        <v>565</v>
+        <v>470</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -4113,19 +3255,19 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>572</v>
+        <v>477</v>
       </c>
       <c r="C12" t="s">
-        <v>573</v>
+        <v>478</v>
       </c>
       <c r="D12" t="s">
-        <v>574</v>
+        <v>479</v>
       </c>
       <c r="E12" t="s">
         <v>30</v>
       </c>
       <c r="F12" t="s">
-        <v>386</v>
+        <v>291</v>
       </c>
       <c r="G12" t="s">
         <v>69</v>
@@ -4142,19 +3284,19 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>575</v>
+        <v>480</v>
       </c>
       <c r="C13" t="s">
-        <v>576</v>
+        <v>481</v>
       </c>
       <c r="D13" t="s">
-        <v>577</v>
+        <v>482</v>
       </c>
       <c r="E13" t="s">
         <v>30</v>
       </c>
       <c r="F13" t="s">
-        <v>386</v>
+        <v>291</v>
       </c>
       <c r="G13" t="s">
         <v>69</v>
@@ -4171,19 +3313,19 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>578</v>
+        <v>483</v>
       </c>
       <c r="C14" t="s">
-        <v>579</v>
+        <v>484</v>
       </c>
       <c r="D14" t="s">
-        <v>580</v>
+        <v>485</v>
       </c>
       <c r="E14" t="s">
         <v>26</v>
       </c>
       <c r="F14" t="s">
-        <v>427</v>
+        <v>332</v>
       </c>
       <c r="H14">
         <v>1</v>
@@ -4197,19 +3339,19 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>581</v>
+        <v>486</v>
       </c>
       <c r="C15" t="s">
-        <v>582</v>
+        <v>487</v>
       </c>
       <c r="D15" t="s">
-        <v>583</v>
+        <v>488</v>
       </c>
       <c r="E15" t="s">
         <v>26</v>
       </c>
       <c r="F15" t="s">
-        <v>427</v>
+        <v>332</v>
       </c>
       <c r="H15">
         <v>1</v>
@@ -4223,13 +3365,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>584</v>
+        <v>489</v>
       </c>
       <c r="C16" t="s">
-        <v>585</v>
+        <v>490</v>
       </c>
       <c r="D16" t="s">
-        <v>586</v>
+        <v>491</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -4243,16 +3385,16 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>587</v>
+        <v>492</v>
       </c>
       <c r="C17" t="s">
-        <v>588</v>
+        <v>493</v>
       </c>
       <c r="E17" t="s">
         <v>73</v>
       </c>
       <c r="F17" t="s">
-        <v>507</v>
+        <v>412</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -4266,16 +3408,16 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>589</v>
+        <v>494</v>
       </c>
       <c r="C18" t="s">
-        <v>590</v>
+        <v>495</v>
       </c>
       <c r="E18" t="s">
         <v>73</v>
       </c>
       <c r="F18" t="s">
-        <v>507</v>
+        <v>412</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -4289,16 +3431,16 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>591</v>
+        <v>496</v>
       </c>
       <c r="C19" t="s">
-        <v>592</v>
+        <v>497</v>
       </c>
       <c r="E19" t="s">
         <v>73</v>
       </c>
       <c r="F19" t="s">
-        <v>507</v>
+        <v>412</v>
       </c>
       <c r="H19">
         <v>1</v>
@@ -4312,16 +3454,16 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>593</v>
+        <v>498</v>
       </c>
       <c r="C20" t="s">
-        <v>594</v>
+        <v>499</v>
       </c>
       <c r="E20" t="s">
         <v>73</v>
       </c>
       <c r="F20" t="s">
-        <v>507</v>
+        <v>412</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -4335,16 +3477,16 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>595</v>
+        <v>500</v>
       </c>
       <c r="C21" t="s">
-        <v>596</v>
+        <v>501</v>
       </c>
       <c r="E21" t="s">
         <v>73</v>
       </c>
       <c r="F21" t="s">
-        <v>507</v>
+        <v>412</v>
       </c>
       <c r="H21">
         <v>1</v>
@@ -4358,13 +3500,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>597</v>
+        <v>502</v>
       </c>
       <c r="C22" t="s">
-        <v>598</v>
+        <v>503</v>
       </c>
       <c r="D22" t="s">
-        <v>599</v>
+        <v>504</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -4378,16 +3520,16 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>600</v>
+        <v>505</v>
       </c>
       <c r="C23" t="s">
-        <v>601</v>
+        <v>506</v>
       </c>
       <c r="E23" t="s">
         <v>73</v>
       </c>
       <c r="F23" t="s">
-        <v>507</v>
+        <v>412</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -4401,16 +3543,16 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>602</v>
+        <v>507</v>
       </c>
       <c r="C24" t="s">
-        <v>603</v>
+        <v>508</v>
       </c>
       <c r="E24" t="s">
         <v>73</v>
       </c>
       <c r="F24" t="s">
-        <v>507</v>
+        <v>412</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -4424,16 +3566,16 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>604</v>
+        <v>509</v>
       </c>
       <c r="C25" t="s">
-        <v>605</v>
+        <v>510</v>
       </c>
       <c r="E25" t="s">
         <v>73</v>
       </c>
       <c r="F25" t="s">
-        <v>507</v>
+        <v>412</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -4447,16 +3589,16 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>606</v>
+        <v>511</v>
       </c>
       <c r="C26" t="s">
-        <v>607</v>
+        <v>512</v>
       </c>
       <c r="E26" t="s">
         <v>73</v>
       </c>
       <c r="F26" t="s">
-        <v>507</v>
+        <v>412</v>
       </c>
       <c r="H26">
         <v>0</v>
@@ -4470,16 +3612,16 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>608</v>
+        <v>513</v>
       </c>
       <c r="C27" t="s">
-        <v>609</v>
+        <v>514</v>
       </c>
       <c r="E27" t="s">
         <v>73</v>
       </c>
       <c r="F27" t="s">
-        <v>507</v>
+        <v>412</v>
       </c>
       <c r="H27">
         <v>0</v>
@@ -4493,22 +3635,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>610</v>
+        <v>515</v>
       </c>
       <c r="C28" t="s">
-        <v>611</v>
+        <v>516</v>
       </c>
       <c r="D28" t="s">
-        <v>612</v>
+        <v>517</v>
       </c>
       <c r="E28" t="s">
         <v>30</v>
       </c>
       <c r="F28" t="s">
-        <v>613</v>
+        <v>518</v>
       </c>
       <c r="G28" t="s">
-        <v>456</v>
+        <v>361</v>
       </c>
       <c r="H28">
         <v>1</v>
@@ -4522,7 +3664,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:I4"/>
   <sheetViews>
@@ -4564,16 +3706,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>614</v>
+        <v>519</v>
       </c>
       <c r="C2" t="s">
-        <v>615</v>
+        <v>520</v>
       </c>
       <c r="D2" t="s">
-        <v>235</v>
+        <v>140</v>
       </c>
       <c r="E2" t="s">
-        <v>236</v>
+        <v>141</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -4587,22 +3729,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>616</v>
+        <v>521</v>
       </c>
       <c r="C3" t="s">
-        <v>458</v>
+        <v>363</v>
       </c>
       <c r="D3" t="s">
-        <v>617</v>
+        <v>522</v>
       </c>
       <c r="E3" t="s">
         <v>30</v>
       </c>
       <c r="F3" t="s">
-        <v>618</v>
+        <v>523</v>
       </c>
       <c r="G3" t="s">
-        <v>461</v>
+        <v>366</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -4616,22 +3758,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>619</v>
+        <v>524</v>
       </c>
       <c r="C4" t="s">
-        <v>620</v>
+        <v>525</v>
       </c>
       <c r="D4" t="s">
-        <v>621</v>
+        <v>526</v>
       </c>
       <c r="E4" t="s">
         <v>46</v>
       </c>
       <c r="F4" t="s">
-        <v>622</v>
+        <v>527</v>
       </c>
       <c r="G4" t="s">
-        <v>246</v>
+        <v>151</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -4645,7 +3787,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:I8"/>
   <sheetViews>
@@ -4687,16 +3829,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>623</v>
+        <v>528</v>
       </c>
       <c r="C2" t="s">
-        <v>408</v>
+        <v>313</v>
       </c>
       <c r="D2" t="s">
-        <v>290</v>
+        <v>195</v>
       </c>
       <c r="E2" t="s">
-        <v>291</v>
+        <v>196</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -4710,19 +3852,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>624</v>
+        <v>529</v>
       </c>
       <c r="C3" t="s">
-        <v>625</v>
+        <v>530</v>
       </c>
       <c r="D3" t="s">
-        <v>626</v>
+        <v>531</v>
       </c>
       <c r="E3" t="s">
         <v>30</v>
       </c>
       <c r="F3" t="s">
-        <v>627</v>
+        <v>532</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -4736,16 +3878,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>628</v>
+        <v>533</v>
       </c>
       <c r="C4" t="s">
-        <v>629</v>
+        <v>534</v>
       </c>
       <c r="D4" t="s">
-        <v>630</v>
+        <v>535</v>
       </c>
       <c r="F4" t="s">
-        <v>631</v>
+        <v>536</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -4759,16 +3901,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>632</v>
+        <v>537</v>
       </c>
       <c r="C5" t="s">
-        <v>633</v>
+        <v>538</v>
       </c>
       <c r="D5" t="s">
-        <v>634</v>
+        <v>539</v>
       </c>
       <c r="F5" t="s">
-        <v>635</v>
+        <v>540</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -4782,19 +3924,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>636</v>
+        <v>541</v>
       </c>
       <c r="C6" t="s">
-        <v>637</v>
+        <v>542</v>
       </c>
       <c r="D6" t="s">
-        <v>638</v>
+        <v>543</v>
       </c>
       <c r="E6" t="s">
         <v>26</v>
       </c>
       <c r="F6" t="s">
-        <v>427</v>
+        <v>332</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -4808,22 +3950,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>639</v>
+        <v>544</v>
       </c>
       <c r="C7" t="s">
-        <v>640</v>
+        <v>545</v>
       </c>
       <c r="D7" t="s">
-        <v>641</v>
+        <v>546</v>
       </c>
       <c r="E7" t="s">
         <v>46</v>
       </c>
       <c r="F7" t="s">
-        <v>642</v>
+        <v>547</v>
       </c>
       <c r="G7" t="s">
-        <v>246</v>
+        <v>151</v>
       </c>
       <c r="H7">
         <v>1</v>
@@ -4837,10 +3979,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>643</v>
+        <v>548</v>
       </c>
       <c r="C8" t="s">
-        <v>644</v>
+        <v>549</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -4978,15 +4120,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="2" max="2" width="70.31640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.04296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="155.40625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="56.31640625" customWidth="1"/>
+    <col min="3" max="3" width="57.04296875" customWidth="1"/>
+    <col min="4" max="4" width="99.5" style="3" customWidth="1"/>
+    <col min="5" max="5" width="14.81640625" customWidth="1"/>
+    <col min="6" max="6" width="24.36328125" customWidth="1"/>
+    <col min="7" max="7" width="18.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.75">
@@ -4999,7 +4144,7 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -5018,7 +4163,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:9" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A2">
         <v>0</v>
       </c>
@@ -5028,7 +4173,7 @@
       <c r="C2" t="s">
         <v>28</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="3" t="s">
         <v>29</v>
       </c>
       <c r="E2" t="s">
@@ -5047,7 +4192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:9" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A3">
         <v>1</v>
       </c>
@@ -5057,7 +4202,7 @@
       <c r="C3" t="s">
         <v>34</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E3" t="s">
@@ -5086,7 +4231,7 @@
       <c r="C4" t="s">
         <v>39</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="3" t="s">
         <v>40</v>
       </c>
       <c r="E4" t="s">
@@ -5115,7 +4260,7 @@
       <c r="C5" t="s">
         <v>44</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="3" t="s">
         <v>45</v>
       </c>
       <c r="E5" t="s">
@@ -5141,7 +4286,7 @@
       <c r="C6" t="s">
         <v>49</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="3" t="s">
         <v>50</v>
       </c>
       <c r="E6" t="s">
@@ -5160,7 +4305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:9" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A7">
         <v>5</v>
       </c>
@@ -5170,7 +4315,7 @@
       <c r="C7" t="s">
         <v>54</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="3" t="s">
         <v>55</v>
       </c>
       <c r="E7" t="s">
@@ -5196,7 +4341,7 @@
       <c r="C8" t="s">
         <v>59</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="3" t="s">
         <v>60</v>
       </c>
       <c r="E8" t="s">
@@ -5222,7 +4367,7 @@
       <c r="C9" t="s">
         <v>62</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="3" t="s">
         <v>63</v>
       </c>
       <c r="E9" t="s">
@@ -5238,7 +4383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:9" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A10">
         <v>8</v>
       </c>
@@ -5248,7 +4393,7 @@
       <c r="C10" t="s">
         <v>66</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="3" t="s">
         <v>67</v>
       </c>
       <c r="E10" t="s">
@@ -5267,7 +4412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:9" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A11">
         <v>9</v>
       </c>
@@ -5277,7 +4422,7 @@
       <c r="C11" t="s">
         <v>71</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="3" t="s">
         <v>72</v>
       </c>
       <c r="E11" t="s">
@@ -5660,7 +4805,7 @@
       <c r="C30" t="s">
         <v>111</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="3" t="s">
         <v>111</v>
       </c>
       <c r="E30" t="s">
@@ -5689,7 +4834,7 @@
       <c r="C31" t="s">
         <v>115</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="3" t="s">
         <v>115</v>
       </c>
       <c r="E31" t="s">
@@ -5912,12 +5057,15 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:I22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <cols>
+    <col min="2" max="2" width="52.54296875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A1" s="1" t="s">
@@ -5956,16 +5104,16 @@
         <v>138</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>139</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>140</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>141</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -5979,19 +5127,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C3" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="D3" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="E3" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="F3" t="s">
-        <v>127</v>
+        <v>145</v>
+      </c>
+      <c r="G3" t="s">
+        <v>146</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -6005,22 +5156,25 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="C4" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="D4" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="E4" t="s">
         <v>46</v>
       </c>
       <c r="F4" t="s">
-        <v>145</v>
+        <v>150</v>
+      </c>
+      <c r="G4" t="s">
+        <v>151</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -6031,22 +5185,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="C5" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="D5" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="E5" t="s">
-        <v>149</v>
+        <v>26</v>
       </c>
       <c r="F5" t="s">
-        <v>150</v>
+        <v>127</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -6057,22 +5211,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="C6" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="D6" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E6" t="s">
         <v>30</v>
       </c>
       <c r="F6" t="s">
-        <v>154</v>
+        <v>68</v>
       </c>
       <c r="G6" t="s">
-        <v>154</v>
+        <v>69</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -6086,25 +5240,25 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="D7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="E7" t="s">
         <v>30</v>
       </c>
       <c r="F7" t="s">
-        <v>158</v>
+        <v>68</v>
       </c>
       <c r="G7" t="s">
-        <v>159</v>
+        <v>69</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -6112,28 +5266,28 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C8" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="F8" t="s">
-        <v>163</v>
+        <v>68</v>
       </c>
       <c r="G8" t="s">
-        <v>164</v>
+        <v>69</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -6141,28 +5295,25 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
+        <v>164</v>
+      </c>
+      <c r="C9" t="s">
         <v>165</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>166</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
+        <v>73</v>
+      </c>
+      <c r="F9" t="s">
         <v>167</v>
       </c>
-      <c r="E9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" t="s">
-        <v>168</v>
-      </c>
-      <c r="G9" t="s">
-        <v>169</v>
-      </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -6170,28 +5321,25 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
+        <v>168</v>
+      </c>
+      <c r="C10" t="s">
+        <v>169</v>
+      </c>
+      <c r="D10" t="s">
         <v>170</v>
       </c>
-      <c r="C10" t="s">
-        <v>171</v>
-      </c>
-      <c r="D10" t="s">
-        <v>172</v>
-      </c>
       <c r="E10" t="s">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="F10" t="s">
-        <v>173</v>
-      </c>
-      <c r="G10" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -6199,28 +5347,25 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C11" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D11" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="E11" t="s">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="F11" t="s">
-        <v>178</v>
-      </c>
-      <c r="G11" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>1</v>
@@ -6228,28 +5373,25 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="C12" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="D12" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="E12" t="s">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="F12" t="s">
-        <v>183</v>
-      </c>
-      <c r="G12" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>1</v>
@@ -6257,28 +5399,25 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A13">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="C13" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="D13" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="E13" t="s">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="F13" t="s">
-        <v>188</v>
-      </c>
-      <c r="G13" t="s">
-        <v>189</v>
+        <v>167</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13">
         <v>1</v>
@@ -6286,28 +5425,25 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A14">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="C14" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="D14" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="E14" t="s">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="F14" t="s">
-        <v>193</v>
-      </c>
-      <c r="G14" t="s">
-        <v>194</v>
+        <v>167</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>1</v>
@@ -6315,28 +5451,25 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A15">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="C15" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="D15" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="E15" t="s">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="F15" t="s">
-        <v>198</v>
-      </c>
-      <c r="G15" t="s">
-        <v>199</v>
+        <v>167</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <v>1</v>
@@ -6344,28 +5477,25 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A16">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="C16" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="D16" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="E16" t="s">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="F16" t="s">
-        <v>203</v>
-      </c>
-      <c r="G16" t="s">
-        <v>204</v>
+        <v>167</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16">
         <v>1</v>
@@ -6373,28 +5503,25 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A17">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="C17" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="D17" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="E17" t="s">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="F17" t="s">
-        <v>208</v>
-      </c>
-      <c r="G17" t="s">
-        <v>209</v>
+        <v>167</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17">
         <v>1</v>
@@ -6402,146 +5529,27 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A18">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>210</v>
+        <v>192</v>
       </c>
       <c r="C18" t="s">
-        <v>211</v>
+        <v>193</v>
       </c>
       <c r="D18" t="s">
-        <v>212</v>
+        <v>194</v>
       </c>
       <c r="E18" t="s">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="F18" t="s">
-        <v>213</v>
-      </c>
-      <c r="G18" t="s">
-        <v>214</v>
+        <v>167</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.75">
-      <c r="A19">
-        <v>19</v>
-      </c>
-      <c r="B19" t="s">
-        <v>215</v>
-      </c>
-      <c r="C19" t="s">
-        <v>216</v>
-      </c>
-      <c r="D19" t="s">
-        <v>217</v>
-      </c>
-      <c r="E19" t="s">
-        <v>12</v>
-      </c>
-      <c r="F19" t="s">
-        <v>218</v>
-      </c>
-      <c r="G19" t="s">
-        <v>219</v>
-      </c>
-      <c r="H19">
-        <v>1</v>
-      </c>
-      <c r="I19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.75">
-      <c r="A20">
-        <v>20</v>
-      </c>
-      <c r="B20" t="s">
-        <v>220</v>
-      </c>
-      <c r="C20" t="s">
-        <v>221</v>
-      </c>
-      <c r="D20" t="s">
-        <v>222</v>
-      </c>
-      <c r="E20" t="s">
-        <v>12</v>
-      </c>
-      <c r="F20" t="s">
-        <v>223</v>
-      </c>
-      <c r="G20" t="s">
-        <v>224</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.75">
-      <c r="A21">
-        <v>21</v>
-      </c>
-      <c r="B21" t="s">
-        <v>225</v>
-      </c>
-      <c r="C21" t="s">
-        <v>226</v>
-      </c>
-      <c r="D21" t="s">
-        <v>227</v>
-      </c>
-      <c r="E21" t="s">
-        <v>12</v>
-      </c>
-      <c r="F21" t="s">
-        <v>228</v>
-      </c>
-      <c r="G21" t="s">
-        <v>224</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.75">
-      <c r="A22">
-        <v>22</v>
-      </c>
-      <c r="B22" t="s">
-        <v>229</v>
-      </c>
-      <c r="C22" t="s">
-        <v>230</v>
-      </c>
-      <c r="D22" t="s">
-        <v>231</v>
-      </c>
-      <c r="E22" t="s">
-        <v>12</v>
-      </c>
-      <c r="F22" t="s">
-        <v>232</v>
-      </c>
-      <c r="G22" t="s">
-        <v>224</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22">
         <v>1</v>
       </c>
     </row>
@@ -6551,505 +5559,6 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:I18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.75">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.75">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>233</v>
-      </c>
-      <c r="C2" t="s">
-        <v>234</v>
-      </c>
-      <c r="D2" t="s">
-        <v>235</v>
-      </c>
-      <c r="E2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" t="s">
-        <v>236</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.75">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>237</v>
-      </c>
-      <c r="C3" t="s">
-        <v>238</v>
-      </c>
-      <c r="D3" t="s">
-        <v>239</v>
-      </c>
-      <c r="E3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F3" t="s">
-        <v>240</v>
-      </c>
-      <c r="G3" t="s">
-        <v>241</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.75">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>242</v>
-      </c>
-      <c r="C4" t="s">
-        <v>243</v>
-      </c>
-      <c r="D4" t="s">
-        <v>244</v>
-      </c>
-      <c r="E4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F4" t="s">
-        <v>245</v>
-      </c>
-      <c r="G4" t="s">
-        <v>246</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.75">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>247</v>
-      </c>
-      <c r="C5" t="s">
-        <v>248</v>
-      </c>
-      <c r="D5" t="s">
-        <v>249</v>
-      </c>
-      <c r="E5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" t="s">
-        <v>127</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.75">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>250</v>
-      </c>
-      <c r="C6" t="s">
-        <v>251</v>
-      </c>
-      <c r="D6" t="s">
-        <v>252</v>
-      </c>
-      <c r="E6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" t="s">
-        <v>68</v>
-      </c>
-      <c r="G6" t="s">
-        <v>69</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.75">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>253</v>
-      </c>
-      <c r="C7" t="s">
-        <v>254</v>
-      </c>
-      <c r="D7" t="s">
-        <v>255</v>
-      </c>
-      <c r="E7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" t="s">
-        <v>68</v>
-      </c>
-      <c r="G7" t="s">
-        <v>69</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.75">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>256</v>
-      </c>
-      <c r="C8" t="s">
-        <v>257</v>
-      </c>
-      <c r="D8" t="s">
-        <v>258</v>
-      </c>
-      <c r="E8" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" t="s">
-        <v>68</v>
-      </c>
-      <c r="G8" t="s">
-        <v>69</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.75">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>259</v>
-      </c>
-      <c r="C9" t="s">
-        <v>260</v>
-      </c>
-      <c r="D9" t="s">
-        <v>261</v>
-      </c>
-      <c r="E9" t="s">
-        <v>73</v>
-      </c>
-      <c r="F9" t="s">
-        <v>262</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.75">
-      <c r="A10">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>263</v>
-      </c>
-      <c r="C10" t="s">
-        <v>264</v>
-      </c>
-      <c r="D10" t="s">
-        <v>265</v>
-      </c>
-      <c r="E10" t="s">
-        <v>73</v>
-      </c>
-      <c r="F10" t="s">
-        <v>262</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.75">
-      <c r="A11">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>266</v>
-      </c>
-      <c r="C11" t="s">
-        <v>267</v>
-      </c>
-      <c r="D11" t="s">
-        <v>268</v>
-      </c>
-      <c r="E11" t="s">
-        <v>73</v>
-      </c>
-      <c r="F11" t="s">
-        <v>262</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.75">
-      <c r="A12">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>269</v>
-      </c>
-      <c r="C12" t="s">
-        <v>270</v>
-      </c>
-      <c r="D12" t="s">
-        <v>271</v>
-      </c>
-      <c r="E12" t="s">
-        <v>73</v>
-      </c>
-      <c r="F12" t="s">
-        <v>262</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.75">
-      <c r="A13">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>272</v>
-      </c>
-      <c r="C13" t="s">
-        <v>273</v>
-      </c>
-      <c r="D13" t="s">
-        <v>274</v>
-      </c>
-      <c r="E13" t="s">
-        <v>73</v>
-      </c>
-      <c r="F13" t="s">
-        <v>262</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.75">
-      <c r="A14">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>275</v>
-      </c>
-      <c r="C14" t="s">
-        <v>276</v>
-      </c>
-      <c r="D14" t="s">
-        <v>277</v>
-      </c>
-      <c r="E14" t="s">
-        <v>73</v>
-      </c>
-      <c r="F14" t="s">
-        <v>262</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.75">
-      <c r="A15">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>278</v>
-      </c>
-      <c r="C15" t="s">
-        <v>279</v>
-      </c>
-      <c r="D15" t="s">
-        <v>280</v>
-      </c>
-      <c r="E15" t="s">
-        <v>73</v>
-      </c>
-      <c r="F15" t="s">
-        <v>262</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.75">
-      <c r="A16">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>281</v>
-      </c>
-      <c r="C16" t="s">
-        <v>282</v>
-      </c>
-      <c r="D16" t="s">
-        <v>283</v>
-      </c>
-      <c r="E16" t="s">
-        <v>73</v>
-      </c>
-      <c r="F16" t="s">
-        <v>262</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.75">
-      <c r="A17">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>284</v>
-      </c>
-      <c r="C17" t="s">
-        <v>285</v>
-      </c>
-      <c r="D17" t="s">
-        <v>286</v>
-      </c>
-      <c r="E17" t="s">
-        <v>73</v>
-      </c>
-      <c r="F17" t="s">
-        <v>262</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.75">
-      <c r="A18">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
-        <v>287</v>
-      </c>
-      <c r="C18" t="s">
-        <v>288</v>
-      </c>
-      <c r="D18" t="s">
-        <v>289</v>
-      </c>
-      <c r="E18" t="s">
-        <v>73</v>
-      </c>
-      <c r="F18" t="s">
-        <v>262</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:I16"/>
   <sheetViews>
@@ -7091,19 +5600,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>233</v>
+        <v>138</v>
       </c>
       <c r="C2" t="s">
-        <v>234</v>
+        <v>139</v>
       </c>
       <c r="D2" t="s">
-        <v>290</v>
+        <v>195</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>291</v>
+        <v>196</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -7117,19 +5626,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>233</v>
+        <v>138</v>
       </c>
       <c r="C3" t="s">
-        <v>234</v>
+        <v>139</v>
       </c>
       <c r="D3" t="s">
-        <v>292</v>
+        <v>197</v>
       </c>
       <c r="E3" t="s">
         <v>73</v>
       </c>
       <c r="F3" t="s">
-        <v>262</v>
+        <v>167</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -7143,13 +5652,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>233</v>
+        <v>138</v>
       </c>
       <c r="C4" t="s">
-        <v>234</v>
+        <v>139</v>
       </c>
       <c r="D4" t="s">
-        <v>293</v>
+        <v>198</v>
       </c>
       <c r="E4" t="s">
         <v>26</v>
@@ -7169,19 +5678,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>233</v>
+        <v>138</v>
       </c>
       <c r="C5" t="s">
-        <v>234</v>
+        <v>139</v>
       </c>
       <c r="D5" t="s">
-        <v>294</v>
+        <v>199</v>
       </c>
       <c r="E5" t="s">
         <v>73</v>
       </c>
       <c r="F5" t="s">
-        <v>262</v>
+        <v>167</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -7195,13 +5704,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>233</v>
+        <v>138</v>
       </c>
       <c r="C6" t="s">
-        <v>234</v>
+        <v>139</v>
       </c>
       <c r="D6" t="s">
-        <v>295</v>
+        <v>200</v>
       </c>
       <c r="E6" t="s">
         <v>26</v>
@@ -7221,19 +5730,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>233</v>
+        <v>138</v>
       </c>
       <c r="C7" t="s">
-        <v>234</v>
+        <v>139</v>
       </c>
       <c r="D7" t="s">
-        <v>296</v>
+        <v>201</v>
       </c>
       <c r="E7" t="s">
         <v>73</v>
       </c>
       <c r="F7" t="s">
-        <v>262</v>
+        <v>167</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -7247,13 +5756,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>233</v>
+        <v>138</v>
       </c>
       <c r="C8" t="s">
-        <v>234</v>
+        <v>139</v>
       </c>
       <c r="D8" t="s">
-        <v>297</v>
+        <v>202</v>
       </c>
       <c r="E8" t="s">
         <v>26</v>
@@ -7273,19 +5782,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>233</v>
+        <v>138</v>
       </c>
       <c r="C9" t="s">
-        <v>234</v>
+        <v>139</v>
       </c>
       <c r="D9" t="s">
-        <v>298</v>
+        <v>203</v>
       </c>
       <c r="E9" t="s">
         <v>73</v>
       </c>
       <c r="F9" t="s">
-        <v>262</v>
+        <v>167</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -7299,13 +5808,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>233</v>
+        <v>138</v>
       </c>
       <c r="C10" t="s">
-        <v>234</v>
+        <v>139</v>
       </c>
       <c r="D10" t="s">
-        <v>299</v>
+        <v>204</v>
       </c>
       <c r="E10" t="s">
         <v>26</v>
@@ -7325,19 +5834,19 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>233</v>
+        <v>138</v>
       </c>
       <c r="C11" t="s">
-        <v>234</v>
+        <v>139</v>
       </c>
       <c r="D11" t="s">
-        <v>300</v>
+        <v>205</v>
       </c>
       <c r="E11" t="s">
         <v>73</v>
       </c>
       <c r="F11" t="s">
-        <v>262</v>
+        <v>167</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -7351,13 +5860,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>233</v>
+        <v>138</v>
       </c>
       <c r="C12" t="s">
-        <v>234</v>
+        <v>139</v>
       </c>
       <c r="D12" t="s">
-        <v>301</v>
+        <v>206</v>
       </c>
       <c r="E12" t="s">
         <v>26</v>
@@ -7377,19 +5886,19 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>233</v>
+        <v>138</v>
       </c>
       <c r="C13" t="s">
-        <v>234</v>
+        <v>139</v>
       </c>
       <c r="D13" t="s">
-        <v>302</v>
+        <v>207</v>
       </c>
       <c r="E13" t="s">
         <v>73</v>
       </c>
       <c r="F13" t="s">
-        <v>262</v>
+        <v>167</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -7403,13 +5912,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>233</v>
+        <v>138</v>
       </c>
       <c r="C14" t="s">
-        <v>234</v>
+        <v>139</v>
       </c>
       <c r="D14" t="s">
-        <v>303</v>
+        <v>208</v>
       </c>
       <c r="E14" t="s">
         <v>26</v>
@@ -7429,19 +5938,19 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>233</v>
+        <v>138</v>
       </c>
       <c r="C15" t="s">
-        <v>234</v>
+        <v>139</v>
       </c>
       <c r="D15" t="s">
-        <v>304</v>
+        <v>209</v>
       </c>
       <c r="E15" t="s">
         <v>73</v>
       </c>
       <c r="F15" t="s">
-        <v>262</v>
+        <v>167</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -7455,13 +5964,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>233</v>
+        <v>138</v>
       </c>
       <c r="C16" t="s">
-        <v>234</v>
+        <v>139</v>
       </c>
       <c r="D16" t="s">
-        <v>305</v>
+        <v>210</v>
       </c>
       <c r="E16" t="s">
         <v>26</v>
@@ -7473,6 +5982,512 @@
         <v>0</v>
       </c>
       <c r="I16">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:I18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <cols>
+    <col min="2" max="2" width="44.2265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.31640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="92.40625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.76953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="123.40625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C2" t="s">
+        <v>212</v>
+      </c>
+      <c r="D2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>213</v>
+      </c>
+      <c r="C3" t="s">
+        <v>214</v>
+      </c>
+      <c r="D3" t="s">
+        <v>215</v>
+      </c>
+      <c r="E3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" t="s">
+        <v>216</v>
+      </c>
+      <c r="G3" t="s">
+        <v>217</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C4" t="s">
+        <v>219</v>
+      </c>
+      <c r="D4" t="s">
+        <v>220</v>
+      </c>
+      <c r="E4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" t="s">
+        <v>221</v>
+      </c>
+      <c r="G4" t="s">
+        <v>222</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>223</v>
+      </c>
+      <c r="C5" t="s">
+        <v>224</v>
+      </c>
+      <c r="D5" t="s">
+        <v>225</v>
+      </c>
+      <c r="E5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" t="s">
+        <v>226</v>
+      </c>
+      <c r="G5" t="s">
+        <v>227</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>228</v>
+      </c>
+      <c r="C6" t="s">
+        <v>229</v>
+      </c>
+      <c r="D6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" t="s">
+        <v>231</v>
+      </c>
+      <c r="G6" t="s">
+        <v>232</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>233</v>
+      </c>
+      <c r="C7" t="s">
+        <v>234</v>
+      </c>
+      <c r="D7" t="s">
+        <v>235</v>
+      </c>
+      <c r="E7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" t="s">
+        <v>236</v>
+      </c>
+      <c r="G7" t="s">
+        <v>237</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>238</v>
+      </c>
+      <c r="C8" t="s">
+        <v>239</v>
+      </c>
+      <c r="D8" t="s">
+        <v>240</v>
+      </c>
+      <c r="E8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" t="s">
+        <v>241</v>
+      </c>
+      <c r="G8" t="s">
+        <v>242</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>243</v>
+      </c>
+      <c r="C9" t="s">
+        <v>244</v>
+      </c>
+      <c r="D9" t="s">
+        <v>166</v>
+      </c>
+      <c r="E9" t="s">
+        <v>73</v>
+      </c>
+      <c r="F9" t="s">
+        <v>167</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>245</v>
+      </c>
+      <c r="C10" t="s">
+        <v>246</v>
+      </c>
+      <c r="D10" t="s">
+        <v>170</v>
+      </c>
+      <c r="E10" t="s">
+        <v>73</v>
+      </c>
+      <c r="F10" t="s">
+        <v>167</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>247</v>
+      </c>
+      <c r="C11" t="s">
+        <v>248</v>
+      </c>
+      <c r="D11" t="s">
+        <v>173</v>
+      </c>
+      <c r="E11" t="s">
+        <v>73</v>
+      </c>
+      <c r="F11" t="s">
+        <v>167</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>249</v>
+      </c>
+      <c r="C12" t="s">
+        <v>250</v>
+      </c>
+      <c r="D12" t="s">
+        <v>176</v>
+      </c>
+      <c r="E12" t="s">
+        <v>73</v>
+      </c>
+      <c r="F12" t="s">
+        <v>167</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>251</v>
+      </c>
+      <c r="C13" t="s">
+        <v>252</v>
+      </c>
+      <c r="D13" t="s">
+        <v>179</v>
+      </c>
+      <c r="E13" t="s">
+        <v>73</v>
+      </c>
+      <c r="F13" t="s">
+        <v>167</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>253</v>
+      </c>
+      <c r="C14" t="s">
+        <v>254</v>
+      </c>
+      <c r="D14" t="s">
+        <v>182</v>
+      </c>
+      <c r="E14" t="s">
+        <v>73</v>
+      </c>
+      <c r="F14" t="s">
+        <v>167</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C15" t="s">
+        <v>256</v>
+      </c>
+      <c r="D15" t="s">
+        <v>185</v>
+      </c>
+      <c r="E15" t="s">
+        <v>73</v>
+      </c>
+      <c r="F15" t="s">
+        <v>167</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>257</v>
+      </c>
+      <c r="C16" t="s">
+        <v>258</v>
+      </c>
+      <c r="D16" t="s">
+        <v>188</v>
+      </c>
+      <c r="E16" t="s">
+        <v>73</v>
+      </c>
+      <c r="F16" t="s">
+        <v>167</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>259</v>
+      </c>
+      <c r="C17" t="s">
+        <v>260</v>
+      </c>
+      <c r="D17" t="s">
+        <v>191</v>
+      </c>
+      <c r="E17" t="s">
+        <v>73</v>
+      </c>
+      <c r="F17" t="s">
+        <v>167</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>261</v>
+      </c>
+      <c r="C18" t="s">
+        <v>262</v>
+      </c>
+      <c r="D18" t="s">
+        <v>194</v>
+      </c>
+      <c r="E18" t="s">
+        <v>73</v>
+      </c>
+      <c r="F18" t="s">
+        <v>167</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
         <v>1</v>
       </c>
     </row>
@@ -7482,8 +6497,599 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:I18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:I21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <cols>
+    <col min="2" max="2" width="36.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.6796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="89.31640625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.7265625" customWidth="1"/>
+    <col min="7" max="7" width="17.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>263</v>
+      </c>
+      <c r="C2" t="s">
+        <v>212</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>264</v>
+      </c>
+      <c r="C3" t="s">
+        <v>265</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="E3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" t="s">
+        <v>267</v>
+      </c>
+      <c r="G3" t="s">
+        <v>268</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>269</v>
+      </c>
+      <c r="C4" t="s">
+        <v>270</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="E4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" t="s">
+        <v>272</v>
+      </c>
+      <c r="G4" t="s">
+        <v>273</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>274</v>
+      </c>
+      <c r="C5" t="s">
+        <v>275</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="E5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" t="s">
+        <v>277</v>
+      </c>
+      <c r="G5" t="s">
+        <v>278</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>279</v>
+      </c>
+      <c r="C6" t="s">
+        <v>280</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="E6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" t="s">
+        <v>282</v>
+      </c>
+      <c r="G6" t="s">
+        <v>283</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="44.25" x14ac:dyDescent="0.75">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>284</v>
+      </c>
+      <c r="C7" t="s">
+        <v>285</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="E7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" t="s">
+        <v>287</v>
+      </c>
+      <c r="G7" t="s">
+        <v>151</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>288</v>
+      </c>
+      <c r="C8" t="s">
+        <v>289</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="E8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" t="s">
+        <v>291</v>
+      </c>
+      <c r="G8" t="s">
+        <v>69</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>292</v>
+      </c>
+      <c r="C9" t="s">
+        <v>293</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="E9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" t="s">
+        <v>291</v>
+      </c>
+      <c r="G9" t="s">
+        <v>69</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>295</v>
+      </c>
+      <c r="C10" t="s">
+        <v>296</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="E10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" t="s">
+        <v>298</v>
+      </c>
+      <c r="G10" t="s">
+        <v>299</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>300</v>
+      </c>
+      <c r="C11" t="s">
+        <v>239</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="E11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" t="s">
+        <v>241</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>301</v>
+      </c>
+      <c r="C12" t="s">
+        <v>302</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="E12" t="s">
+        <v>73</v>
+      </c>
+      <c r="F12" t="s">
+        <v>167</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>303</v>
+      </c>
+      <c r="C13" t="s">
+        <v>246</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E13" t="s">
+        <v>73</v>
+      </c>
+      <c r="F13" t="s">
+        <v>167</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>304</v>
+      </c>
+      <c r="C14" t="s">
+        <v>248</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="E14" t="s">
+        <v>73</v>
+      </c>
+      <c r="F14" t="s">
+        <v>167</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>305</v>
+      </c>
+      <c r="C15" t="s">
+        <v>250</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="E15" t="s">
+        <v>73</v>
+      </c>
+      <c r="F15" t="s">
+        <v>167</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>306</v>
+      </c>
+      <c r="C16" t="s">
+        <v>252</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="E16" t="s">
+        <v>73</v>
+      </c>
+      <c r="F16" t="s">
+        <v>167</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>307</v>
+      </c>
+      <c r="C17" t="s">
+        <v>254</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="E17" t="s">
+        <v>73</v>
+      </c>
+      <c r="F17" t="s">
+        <v>167</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>308</v>
+      </c>
+      <c r="C18" t="s">
+        <v>256</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="E18" t="s">
+        <v>73</v>
+      </c>
+      <c r="F18" t="s">
+        <v>167</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>309</v>
+      </c>
+      <c r="C19" t="s">
+        <v>258</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="E19" t="s">
+        <v>73</v>
+      </c>
+      <c r="F19" t="s">
+        <v>167</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>310</v>
+      </c>
+      <c r="C20" t="s">
+        <v>260</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="E20" t="s">
+        <v>73</v>
+      </c>
+      <c r="F20" t="s">
+        <v>167</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>311</v>
+      </c>
+      <c r="C21" t="s">
+        <v>262</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="E21" t="s">
+        <v>73</v>
+      </c>
+      <c r="F21" t="s">
+        <v>167</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7523,13 +7129,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="C2" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="D2" t="s">
-        <v>290</v>
+        <v>195</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
@@ -7546,22 +7152,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="C3" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="D3" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="E3" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="F3" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="G3" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -7575,22 +7181,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="C4" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="D4" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="E4" t="s">
         <v>30</v>
       </c>
       <c r="F4" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="G4" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -7604,22 +7210,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="C5" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="D5" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="E5" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="F5" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="G5" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -7633,22 +7239,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="C6" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="D6" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="E6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F6" t="s">
-        <v>326</v>
-      </c>
-      <c r="G6" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -7662,21 +7265,18 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="C7" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="D7" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="E7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F7" t="s">
-        <v>331</v>
-      </c>
-      <c r="G7" t="s">
         <v>332</v>
       </c>
       <c r="H7">
@@ -7691,25 +7291,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="C8" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="D8" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="E8" t="s">
-        <v>30</v>
+        <v>339</v>
       </c>
       <c r="F8" t="s">
-        <v>336</v>
-      </c>
-      <c r="G8" t="s">
-        <v>337</v>
+        <v>57</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -7720,19 +7317,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="C9" t="s">
-        <v>339</v>
-      </c>
-      <c r="D9" t="s">
-        <v>261</v>
-      </c>
-      <c r="E9" t="s">
-        <v>73</v>
-      </c>
-      <c r="F9" t="s">
-        <v>262</v>
+        <v>341</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -7746,22 +7334,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="C10" t="s">
-        <v>341</v>
-      </c>
-      <c r="D10" t="s">
-        <v>265</v>
+        <v>343</v>
       </c>
       <c r="E10" t="s">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="F10" t="s">
-        <v>262</v>
+        <v>344</v>
+      </c>
+      <c r="G10" t="s">
+        <v>345</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -7772,22 +7360,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="C11" t="s">
-        <v>343</v>
-      </c>
-      <c r="D11" t="s">
-        <v>268</v>
+        <v>347</v>
       </c>
       <c r="E11" t="s">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="F11" t="s">
-        <v>262</v>
+        <v>344</v>
+      </c>
+      <c r="G11" t="s">
+        <v>345</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11">
         <v>1</v>
@@ -7798,22 +7386,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
+        <v>348</v>
+      </c>
+      <c r="C12" t="s">
+        <v>349</v>
+      </c>
+      <c r="E12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" t="s">
         <v>344</v>
       </c>
-      <c r="C12" t="s">
+      <c r="G12" t="s">
         <v>345</v>
       </c>
-      <c r="D12" t="s">
-        <v>271</v>
-      </c>
-      <c r="E12" t="s">
-        <v>73</v>
-      </c>
-      <c r="F12" t="s">
-        <v>262</v>
-      </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12">
         <v>1</v>
@@ -7824,22 +7412,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="C13" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="D13" t="s">
-        <v>274</v>
+        <v>352</v>
       </c>
       <c r="E13" t="s">
-        <v>73</v>
+        <v>26</v>
       </c>
       <c r="F13" t="s">
-        <v>262</v>
+        <v>353</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13">
         <v>1</v>
@@ -7850,22 +7438,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="C14" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="D14" t="s">
-        <v>277</v>
+        <v>356</v>
       </c>
       <c r="E14" t="s">
-        <v>73</v>
+        <v>26</v>
       </c>
       <c r="F14" t="s">
-        <v>262</v>
+        <v>353</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14">
         <v>1</v>
@@ -7876,22 +7464,25 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="C15" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="D15" t="s">
-        <v>280</v>
+        <v>359</v>
       </c>
       <c r="E15" t="s">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="F15" t="s">
-        <v>262</v>
+        <v>360</v>
+      </c>
+      <c r="G15" t="s">
+        <v>361</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15">
         <v>1</v>
@@ -7902,659 +7493,27 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
       <c r="C16" t="s">
-        <v>353</v>
+        <v>363</v>
       </c>
       <c r="D16" t="s">
-        <v>283</v>
+        <v>364</v>
       </c>
       <c r="E16" t="s">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="F16" t="s">
-        <v>262</v>
+        <v>365</v>
+      </c>
+      <c r="G16" t="s">
+        <v>366</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.75">
-      <c r="A17">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>354</v>
-      </c>
-      <c r="C17" t="s">
-        <v>355</v>
-      </c>
-      <c r="D17" t="s">
-        <v>286</v>
-      </c>
-      <c r="E17" t="s">
-        <v>73</v>
-      </c>
-      <c r="F17" t="s">
-        <v>262</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.75">
-      <c r="A18">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
-        <v>356</v>
-      </c>
-      <c r="C18" t="s">
-        <v>357</v>
-      </c>
-      <c r="D18" t="s">
-        <v>289</v>
-      </c>
-      <c r="E18" t="s">
-        <v>73</v>
-      </c>
-      <c r="F18" t="s">
-        <v>262</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:I21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.75">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.75">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>358</v>
-      </c>
-      <c r="C2" t="s">
-        <v>307</v>
-      </c>
-      <c r="D2" t="s">
-        <v>290</v>
-      </c>
-      <c r="E2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.75">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>359</v>
-      </c>
-      <c r="C3" t="s">
-        <v>360</v>
-      </c>
-      <c r="D3" t="s">
-        <v>361</v>
-      </c>
-      <c r="E3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" t="s">
-        <v>362</v>
-      </c>
-      <c r="G3" t="s">
-        <v>363</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.75">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>364</v>
-      </c>
-      <c r="C4" t="s">
-        <v>365</v>
-      </c>
-      <c r="D4" t="s">
-        <v>366</v>
-      </c>
-      <c r="E4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" t="s">
-        <v>367</v>
-      </c>
-      <c r="G4" t="s">
-        <v>368</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.75">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>369</v>
-      </c>
-      <c r="C5" t="s">
-        <v>370</v>
-      </c>
-      <c r="D5" t="s">
-        <v>371</v>
-      </c>
-      <c r="E5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" t="s">
-        <v>372</v>
-      </c>
-      <c r="G5" t="s">
-        <v>373</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.75">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>374</v>
-      </c>
-      <c r="C6" t="s">
-        <v>375</v>
-      </c>
-      <c r="D6" t="s">
-        <v>376</v>
-      </c>
-      <c r="E6" t="s">
-        <v>46</v>
-      </c>
-      <c r="F6" t="s">
-        <v>377</v>
-      </c>
-      <c r="G6" t="s">
-        <v>378</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.75">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>379</v>
-      </c>
-      <c r="C7" t="s">
-        <v>380</v>
-      </c>
-      <c r="D7" t="s">
-        <v>381</v>
-      </c>
-      <c r="E7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F7" t="s">
-        <v>382</v>
-      </c>
-      <c r="G7" t="s">
-        <v>246</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.75">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>383</v>
-      </c>
-      <c r="C8" t="s">
-        <v>384</v>
-      </c>
-      <c r="D8" t="s">
-        <v>385</v>
-      </c>
-      <c r="E8" t="s">
-        <v>46</v>
-      </c>
-      <c r="F8" t="s">
-        <v>386</v>
-      </c>
-      <c r="G8" t="s">
-        <v>69</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.75">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>387</v>
-      </c>
-      <c r="C9" t="s">
-        <v>388</v>
-      </c>
-      <c r="D9" t="s">
-        <v>389</v>
-      </c>
-      <c r="E9" t="s">
-        <v>46</v>
-      </c>
-      <c r="F9" t="s">
-        <v>386</v>
-      </c>
-      <c r="G9" t="s">
-        <v>69</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.75">
-      <c r="A10">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>390</v>
-      </c>
-      <c r="C10" t="s">
-        <v>391</v>
-      </c>
-      <c r="D10" t="s">
-        <v>392</v>
-      </c>
-      <c r="E10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F10" t="s">
-        <v>393</v>
-      </c>
-      <c r="G10" t="s">
-        <v>394</v>
-      </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.75">
-      <c r="A11">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>395</v>
-      </c>
-      <c r="C11" t="s">
-        <v>334</v>
-      </c>
-      <c r="D11" t="s">
-        <v>335</v>
-      </c>
-      <c r="E11" t="s">
-        <v>30</v>
-      </c>
-      <c r="F11" t="s">
-        <v>336</v>
-      </c>
-      <c r="H11">
-        <v>1</v>
-      </c>
-      <c r="I11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.75">
-      <c r="A12">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>396</v>
-      </c>
-      <c r="C12" t="s">
-        <v>397</v>
-      </c>
-      <c r="D12" t="s">
-        <v>261</v>
-      </c>
-      <c r="E12" t="s">
-        <v>73</v>
-      </c>
-      <c r="F12" t="s">
-        <v>262</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.75">
-      <c r="A13">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>398</v>
-      </c>
-      <c r="C13" t="s">
-        <v>341</v>
-      </c>
-      <c r="D13" t="s">
-        <v>265</v>
-      </c>
-      <c r="E13" t="s">
-        <v>73</v>
-      </c>
-      <c r="F13" t="s">
-        <v>262</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.75">
-      <c r="A14">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>399</v>
-      </c>
-      <c r="C14" t="s">
-        <v>343</v>
-      </c>
-      <c r="D14" t="s">
-        <v>268</v>
-      </c>
-      <c r="E14" t="s">
-        <v>73</v>
-      </c>
-      <c r="F14" t="s">
-        <v>262</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.75">
-      <c r="A15">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>400</v>
-      </c>
-      <c r="C15" t="s">
-        <v>345</v>
-      </c>
-      <c r="D15" t="s">
-        <v>271</v>
-      </c>
-      <c r="E15" t="s">
-        <v>73</v>
-      </c>
-      <c r="F15" t="s">
-        <v>262</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.75">
-      <c r="A16">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>401</v>
-      </c>
-      <c r="C16" t="s">
-        <v>347</v>
-      </c>
-      <c r="D16" t="s">
-        <v>274</v>
-      </c>
-      <c r="E16" t="s">
-        <v>73</v>
-      </c>
-      <c r="F16" t="s">
-        <v>262</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.75">
-      <c r="A17">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>402</v>
-      </c>
-      <c r="C17" t="s">
-        <v>349</v>
-      </c>
-      <c r="D17" t="s">
-        <v>277</v>
-      </c>
-      <c r="E17" t="s">
-        <v>73</v>
-      </c>
-      <c r="F17" t="s">
-        <v>262</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.75">
-      <c r="A18">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
-        <v>403</v>
-      </c>
-      <c r="C18" t="s">
-        <v>351</v>
-      </c>
-      <c r="D18" t="s">
-        <v>280</v>
-      </c>
-      <c r="E18" t="s">
-        <v>73</v>
-      </c>
-      <c r="F18" t="s">
-        <v>262</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.75">
-      <c r="A19">
-        <v>17</v>
-      </c>
-      <c r="B19" t="s">
-        <v>404</v>
-      </c>
-      <c r="C19" t="s">
-        <v>353</v>
-      </c>
-      <c r="D19" t="s">
-        <v>283</v>
-      </c>
-      <c r="E19" t="s">
-        <v>73</v>
-      </c>
-      <c r="F19" t="s">
-        <v>262</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.75">
-      <c r="A20">
-        <v>18</v>
-      </c>
-      <c r="B20" t="s">
-        <v>405</v>
-      </c>
-      <c r="C20" t="s">
-        <v>355</v>
-      </c>
-      <c r="D20" t="s">
-        <v>286</v>
-      </c>
-      <c r="E20" t="s">
-        <v>73</v>
-      </c>
-      <c r="F20" t="s">
-        <v>262</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.75">
-      <c r="A21">
-        <v>19</v>
-      </c>
-      <c r="B21" t="s">
-        <v>406</v>
-      </c>
-      <c r="C21" t="s">
-        <v>357</v>
-      </c>
-      <c r="D21" t="s">
-        <v>289</v>
-      </c>
-      <c r="E21" t="s">
-        <v>73</v>
-      </c>
-      <c r="F21" t="s">
-        <v>262</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
         <v>1</v>
       </c>
     </row>
